--- a/biology/Botanique/Achille_Georges_Vigier/Achille_Georges_Vigier.xlsx
+++ b/biology/Botanique/Achille_Georges_Vigier/Achille_Georges_Vigier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Achille Georges Hippolyte, vicomte Vigier (11 mars 1825-20 octobre 1882[1]) est un acclimateur et grand amateur de plantes exotiques[2], créateur d'un important jardin botanique à Nice, le parc Vigier[3]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Achille Georges Hippolyte, vicomte Vigier (11 mars 1825-20 octobre 1882) est un acclimateur et grand amateur de plantes exotiques, créateur d'un important jardin botanique à Nice, le parc Vigier. 
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">De nombreuses espèces de palmiers furent cultivées à la Villa Valetta, la villa Camille-Amélie et à la Villa Vigier. Le premier Phoenix canariensis de France fut acclimaté chez lui[4]. Il était le petit-fils de Louis-Nicolas Davout et de Pierre Vigier[5], fils d'Achille Vigier (1801-1868) maire de Savigny-sur-Orge et demi-frère du photographe Joseph Vigier. 
-Il épousa la cantatrice niçoise Sophie Cruvelli[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De nombreuses espèces de palmiers furent cultivées à la Villa Valetta, la villa Camille-Amélie et à la Villa Vigier. Le premier Phoenix canariensis de France fut acclimaté chez lui. Il était le petit-fils de Louis-Nicolas Davout et de Pierre Vigier, fils d'Achille Vigier (1801-1868) maire de Savigny-sur-Orge et demi-frère du photographe Joseph Vigier. 
+Il épousa la cantatrice niçoise Sophie Cruvelli.
 Il est inhumé au cimetière du Père-Lachaise (38e division).
 </t>
         </is>
